--- a/media/output/result/N/complex/lib/bpic2015_1_f2_Ncomplex_evaluation_edit_distance_lib.xlsx
+++ b/media/output/result/N/complex/lib/bpic2015_1_f2_Ncomplex_evaluation_edit_distance_lib.xlsx
@@ -1404,10 +1404,10 @@
         <v>108</v>
       </c>
       <c r="C34" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7129629629629629</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8324324324324325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1433,10 +1433,10 @@
         <v>105</v>
       </c>
       <c r="C35" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.846153846153846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1462,10 +1462,10 @@
         <v>103</v>
       </c>
       <c r="C36" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1474,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7378640776699029</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8491620111731844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1491,10 +1491,10 @@
         <v>102</v>
       </c>
       <c r="C37" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7450980392156863</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8539325842696629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
